--- a/food_groups/fats.xlsx
+++ b/food_groups/fats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18636A41-3124-4703-AD5A-5CF6DAC3153C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FA10D2-AD6B-4D15-AB7D-192EBA9D6372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{9CA2E27A-4223-41ED-AC2C-88729FBD3657}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9CA2E27A-4223-41ED-AC2C-88729FBD3657}"/>
   </bookViews>
   <sheets>
     <sheet name="fats" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>property</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>olive oil</t>
+  </si>
+  <si>
+    <t>food super group</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29692E9B-8705-4FE6-B87C-8B4807537CD5}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,6 +505,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -509,10 +520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F4B78A-7654-442B-9918-FF81079996A7}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,6 +576,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -572,10 +591,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CC5700-E528-4DFA-814F-EA31DEF2B225}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD0F12D-DA7F-4E3A-B7EB-C0F6AA6F3361}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -601,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -609,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -622,73 +723,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD0F12D-DA7F-4E3A-B7EB-C0F6AA6F3361}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
